--- a/pred_ohlcv/54_21/2020-01-21 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 STRAT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-13973.8916</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-12783.9367</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-12273.9367</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-12272.5567</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-2436.579799999998</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>843.1338000000023</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1025.710599999998</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1025.710599999998</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1028.710599999998</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1608.475899999998</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1309.949599999998</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1609.949599999998</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-2107.949599999998</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-2105.614799999998</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>894.3852000000024</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-10309.9107</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-10309.9107</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-10482.8293</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-17611.24878421</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-17611.24878421</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-21626.86128421</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-22190.08508421</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-21801.08508421</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-22104.17598421</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-22104.17598421</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-19211.68388421</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-19002.68388421</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-19212.68378421</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-18395.34098421</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-18395.34098421</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-18395.34098421</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-18547.99768421</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-18417.46828421</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-18686.38668421</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-18364.35278421</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-21 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 STRAT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-13973.8916</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-12783.9367</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-12273.9367</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-12272.5567</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1646.358599999998</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-2436.579799999998</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1025.710599999998</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1025.710599999998</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1028.710599999998</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1609.949599999998</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-2107.949599999998</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>894.3852000000024</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-10309.9107</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-10309.9107</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-10482.8293</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-22104.17598421</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-19211.68388421</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-19002.68388421</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-19212.68378421</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-18395.34098421</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-18395.34098421</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-18547.99768421</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-18417.46828421</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-18686.38668421</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-18364.35278421</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
